--- a/docs/Figure/table-PostGis.xlsx
+++ b/docs/Figure/table-PostGis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Table Points_fixes</t>
   </si>
@@ -65,9 +65,6 @@
     <t>id_ptsess</t>
   </si>
   <si>
-    <t>chantier</t>
-  </si>
-  <si>
     <t>id_aleat</t>
   </si>
   <si>
@@ -93,6 +90,18 @@
   </si>
   <si>
     <t>Spécifier à quel pseudo il appartient</t>
+  </si>
+  <si>
+    <t>date_chantier</t>
+  </si>
+  <si>
+    <t>Date du chantier des points</t>
+  </si>
+  <si>
+    <t>mot de passe</t>
+  </si>
+  <si>
+    <t>Nom de l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -148,64 +157,64 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -224,7 +233,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A5:E6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A5:E6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A5:E6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -233,18 +242,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="id_pf" dataDxfId="21"/>
-    <tableColumn id="2" name="num_pt" dataDxfId="20"/>
-    <tableColumn id="3" name="type" dataDxfId="7"/>
-    <tableColumn id="4" name="Coordonnées des différents systèmes" dataDxfId="3"/>
-    <tableColumn id="5" name="geom" dataDxfId="2"/>
+    <tableColumn id="1" name="id_pf" dataDxfId="19"/>
+    <tableColumn id="2" name="num_pt" dataDxfId="18"/>
+    <tableColumn id="3" name="type" dataDxfId="17"/>
+    <tableColumn id="4" name="Coordonnées des différents systèmes" dataDxfId="16"/>
+    <tableColumn id="5" name="geom" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="A10:H11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="A10:H11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A10:H11">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -256,30 +265,30 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="id_ptsess" dataDxfId="15"/>
-    <tableColumn id="2" name="num_pt" dataDxfId="14"/>
-    <tableColumn id="3" name="chantier" dataDxfId="8"/>
-    <tableColumn id="4" name="Coordonnées des différents systèmes" dataDxfId="6"/>
-    <tableColumn id="5" name="geom" dataDxfId="4"/>
-    <tableColumn id="6" name="id_aleat" dataDxfId="5"/>
-    <tableColumn id="7" name="aleatoire" dataDxfId="1"/>
-    <tableColumn id="8" name="id_sess" dataDxfId="0"/>
+    <tableColumn id="1" name="id_ptsess" dataDxfId="12"/>
+    <tableColumn id="2" name="num_pt" dataDxfId="11"/>
+    <tableColumn id="3" name="date_chantier" dataDxfId="10"/>
+    <tableColumn id="4" name="Coordonnées des différents systèmes" dataDxfId="9"/>
+    <tableColumn id="5" name="geom" dataDxfId="8"/>
+    <tableColumn id="6" name="id_aleat" dataDxfId="7"/>
+    <tableColumn id="7" name="aleatoire" dataDxfId="6"/>
+    <tableColumn id="8" name="id_sess" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="A15:C16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="A15:C16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A15:C16">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="id_sess" dataDxfId="11"/>
-    <tableColumn id="2" name="pseudo" dataDxfId="10"/>
-    <tableColumn id="3" name="password" dataDxfId="9"/>
+    <tableColumn id="1" name="id_sess" dataDxfId="2"/>
+    <tableColumn id="2" name="pseudo" dataDxfId="1"/>
+    <tableColumn id="3" name="password" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,13 +560,14 @@
   <dimension ref="A4:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="3" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
@@ -626,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
@@ -635,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -652,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -661,31 +671,31 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -698,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
